--- a/supplementary_material/supplementary_information_datasetSyn3_methods.xlsx
+++ b/supplementary_material/supplementary_information_datasetSyn3_methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yurin\Documents\my_github\ococlus\supplementary_material\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1BABEC-23FB-4048-BF63-F6744898BAFC}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B23B390-DA40-4901-842C-02E4A28F74F9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
   <si>
     <t>Reconstruction error</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>Li (2020)</t>
+  </si>
+  <si>
+    <t>PaNDa+t1</t>
+  </si>
+  <si>
+    <t>PaNDa+t2</t>
+  </si>
+  <si>
+    <t>PaNDa+t3</t>
   </si>
   <si>
     <t>Dhillon</t>
@@ -144,11 +153,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -157,7 +166,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -392,7 +400,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,19 +410,19 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -439,8 +447,17 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -451,22 +468,31 @@
         <v>1754</v>
       </c>
       <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2">
         <v>2200</v>
       </c>
-      <c r="E5" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3800</v>
-      </c>
       <c r="H5" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -477,22 +503,31 @@
         <v>998</v>
       </c>
       <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G6" s="2">
         <v>2200</v>
       </c>
-      <c r="E6" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G6" s="2">
-        <v>3800</v>
-      </c>
       <c r="H6" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I6" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J6" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -503,22 +538,31 @@
         <v>917</v>
       </c>
       <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="2">
         <v>2200</v>
       </c>
-      <c r="E7" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G7" s="2">
-        <v>3800</v>
-      </c>
       <c r="H7" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J7" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -529,22 +573,31 @@
         <v>834</v>
       </c>
       <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="2">
         <v>2200</v>
       </c>
-      <c r="E8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3800</v>
-      </c>
       <c r="H8" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K8" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -555,22 +608,31 @@
         <v>1565</v>
       </c>
       <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="2">
         <v>2200</v>
       </c>
-      <c r="E9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G9" s="2">
-        <v>3800</v>
-      </c>
       <c r="H9" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K9" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -581,22 +643,31 @@
         <v>1780</v>
       </c>
       <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G10" s="2">
         <v>2200</v>
       </c>
-      <c r="E10" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G10" s="2">
-        <v>3800</v>
-      </c>
       <c r="H10" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -607,22 +678,31 @@
         <v>914</v>
       </c>
       <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G11" s="2">
         <v>2200</v>
       </c>
-      <c r="E11" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3800</v>
-      </c>
       <c r="H11" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -633,22 +713,31 @@
         <v>3200</v>
       </c>
       <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G12" s="2">
         <v>2200</v>
       </c>
-      <c r="E12" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3800</v>
-      </c>
       <c r="H12" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J12" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K12" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -659,22 +748,31 @@
         <v>1071</v>
       </c>
       <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G13" s="2">
         <v>2200</v>
       </c>
-      <c r="E13" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3800</v>
-      </c>
       <c r="H13" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J13" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K13" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -685,22 +783,31 @@
         <v>765</v>
       </c>
       <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="2">
         <v>2200</v>
       </c>
-      <c r="E14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3800</v>
-      </c>
       <c r="H14" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I14" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K14" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -711,22 +818,31 @@
         <v>3200</v>
       </c>
       <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G15" s="2">
         <v>2200</v>
       </c>
-      <c r="E15" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F15" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3800</v>
-      </c>
       <c r="H15" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -737,22 +853,31 @@
         <v>958</v>
       </c>
       <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F16" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G16" s="2">
         <v>2200</v>
       </c>
-      <c r="E16" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F16" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3800</v>
-      </c>
       <c r="H16" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K16" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -763,22 +888,31 @@
         <v>831</v>
       </c>
       <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="2">
         <v>2200</v>
       </c>
-      <c r="E17" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3800</v>
-      </c>
       <c r="H17" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J17" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -789,22 +923,31 @@
         <v>969</v>
       </c>
       <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G18" s="2">
         <v>2200</v>
       </c>
-      <c r="E18" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3800</v>
-      </c>
       <c r="H18" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K18" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -815,75 +958,96 @@
         <v>3200</v>
       </c>
       <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G19" s="2">
         <v>2200</v>
       </c>
-      <c r="E19" s="2">
-        <v>1000</v>
-      </c>
-      <c r="F19" s="2">
-        <v>3800</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3800</v>
-      </c>
       <c r="H19" s="2">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>3800</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3800</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" ref="B21:H21" si="0">AVERAGE(B5:B19)</f>
+        <v>13</v>
+      </c>
+      <c r="B21" s="3">
+        <f t="shared" ref="B21:K21" si="0">AVERAGE(B5:B19)</f>
         <v>0</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>1530.4</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>2200</v>
       </c>
-      <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-      <c r="G21" s="5">
-        <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
       <c r="H21" s="5">
         <f t="shared" si="0"/>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>1000</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+      <c r="K21" s="5">
+        <f t="shared" si="0"/>
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:H22" si="1">STDEV(B5:B19)</f>
+        <f t="shared" ref="B22:K22" si="1">STDEV(B5:B19)</f>
         <v>0</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" si="1"/>
         <v>923.10329092376537</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -892,6 +1056,18 @@
         <v>0</v>
       </c>
       <c r="H22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -906,7 +1082,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -916,19 +1092,19 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -953,8 +1129,17 @@
       <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -965,22 +1150,31 @@
         <v>-6.0526099999999999E-2</v>
       </c>
       <c r="D5" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E5" s="7">
+      <c r="H5" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F5" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H5" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -991,22 +1185,31 @@
         <v>8.2766199999999998E-2</v>
       </c>
       <c r="D6" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="H6" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F6" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H6" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K6" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1017,22 +1220,31 @@
         <v>2.83126E-2</v>
       </c>
       <c r="D7" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E7" s="7">
+      <c r="H7" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F7" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G7" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K7" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1043,22 +1255,31 @@
         <v>2.3111400000000001E-2</v>
       </c>
       <c r="D8" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="H8" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F8" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G8" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J8" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1069,22 +1290,31 @@
         <v>-7.7186900000000003E-2</v>
       </c>
       <c r="D9" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E9" s="7">
+      <c r="H9" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F9" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G9" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J9" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K9" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1095,22 +1325,31 @@
         <v>-6.2680899999999998E-2</v>
       </c>
       <c r="D10" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E10" s="7">
+      <c r="H10" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F10" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G10" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H10" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J10" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K10" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1121,22 +1360,31 @@
         <v>5.8272299999999999E-2</v>
       </c>
       <c r="D11" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E11" s="7">
+      <c r="H11" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F11" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H11" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J11" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K11" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1147,22 +1395,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="H12" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F12" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G12" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H12" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J12" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K12" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1173,22 +1430,31 @@
         <v>0.118557</v>
       </c>
       <c r="D13" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E13" s="7">
+      <c r="H13" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F13" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G13" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H13" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J13" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1199,22 +1465,31 @@
         <v>6.8297999999999998E-2</v>
       </c>
       <c r="D14" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E14" s="7">
+      <c r="H14" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F14" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G14" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H14" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J14" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K14" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1225,22 +1500,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E15" s="7">
+      <c r="H15" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F15" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G15" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H15" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J15" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K15" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1251,22 +1535,31 @@
         <v>4.9985300000000003E-2</v>
       </c>
       <c r="D16" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E16" s="7">
+      <c r="H16" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F16" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1277,22 +1570,31 @@
         <v>4.9263500000000003E-3</v>
       </c>
       <c r="D17" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="H17" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F17" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1303,22 +1605,31 @@
         <v>-6.1138E-3</v>
       </c>
       <c r="D18" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E18" s="7">
+      <c r="H18" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F18" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G18" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H18" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J18" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K18" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1329,27 +1640,36 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
+        <v>0.18126</v>
+      </c>
+      <c r="E19" s="8">
+        <v>0</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
         <v>-1.22583E-2</v>
       </c>
-      <c r="E19" s="7">
+      <c r="H19" s="7">
         <v>8.3499100000000007E-2</v>
       </c>
-      <c r="F19" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="G19" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-      <c r="H19" s="7">
-        <v>6.2315299999999997E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="J19" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+      <c r="K19" s="7">
+        <v>6.2315299999999997E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:H21" si="0">AVERAGE(B5:B19)</f>
+        <f t="shared" ref="B21:K21" si="0">AVERAGE(B5:B19)</f>
         <v>1</v>
       </c>
       <c r="C21" s="9">
@@ -1358,54 +1678,78 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
+        <v>0.18126</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
         <v>-1.22583E-2</v>
       </c>
-      <c r="E21" s="9">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>8.3499100000000034E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>6.2315299999999983E-2</v>
       </c>
-      <c r="G21" s="9">
+      <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>6.2315299999999983E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="K21" s="9">
         <f t="shared" si="0"/>
         <v>6.2315299999999983E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:H22" si="1">STDEV(B5:B19)</f>
+        <f t="shared" ref="B22:K22" si="1">STDEV(B5:B19)</f>
         <v>0</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="1"/>
         <v>5.5391583919309699E-2</v>
       </c>
-      <c r="D22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>2.872975021810196E-17</v>
       </c>
-      <c r="F22" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>1.436487510905098E-17</v>
       </c>
-      <c r="G22" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="1"/>
         <v>1.436487510905098E-17</v>
       </c>
-      <c r="H22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>1.436487510905098E-17</v>
       </c>
@@ -1420,7 +1764,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1430,19 +1774,19 @@
     <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1467,8 +1811,17 @@
       <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -1479,22 +1832,31 @@
         <v>7.7608699999999996E-3</v>
       </c>
       <c r="D5" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E5" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F5" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G5" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E5" s="7">
+      <c r="H5" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -1505,22 +1867,31 @@
         <v>7.1744199999999994E-2</v>
       </c>
       <c r="D6" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F6" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G6" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E6" s="7">
+      <c r="H6" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F6" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J6" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -1531,22 +1902,31 @@
         <v>6.8440500000000001E-2</v>
       </c>
       <c r="D7" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G7" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E7" s="7">
+      <c r="H7" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F7" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -1557,22 +1937,31 @@
         <v>4.7118199999999999E-2</v>
       </c>
       <c r="D8" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G8" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="H8" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F8" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J8" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -1583,22 +1972,31 @@
         <v>5.00104E-3</v>
       </c>
       <c r="D9" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F9" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G9" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="H9" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F9" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G9" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J9" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1609,22 +2007,31 @@
         <v>7.5622600000000003E-3</v>
       </c>
       <c r="D10" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F10" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G10" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E10" s="7">
+      <c r="H10" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F10" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J10" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -1635,22 +2042,31 @@
         <v>5.4538099999999999E-2</v>
       </c>
       <c r="D11" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F11" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G11" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E11" s="7">
+      <c r="H11" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F11" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J11" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -1661,22 +2077,31 @@
         <v>0</v>
       </c>
       <c r="D12" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E12" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F12" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G12" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E12" s="7">
+      <c r="H12" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F12" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -1687,22 +2112,31 @@
         <v>0.10826</v>
       </c>
       <c r="D13" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E13" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G13" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E13" s="7">
+      <c r="H13" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F13" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -1713,22 +2147,31 @@
         <v>6.1306800000000002E-2</v>
       </c>
       <c r="D14" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E14" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G14" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="H14" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F14" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G14" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H14" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -1739,22 +2182,31 @@
         <v>0</v>
       </c>
       <c r="D15" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E15" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G15" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="H15" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F15" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -1765,22 +2217,31 @@
         <v>4.6774000000000003E-2</v>
       </c>
       <c r="D16" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G16" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E16" s="7">
+      <c r="H16" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F16" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H16" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -1791,22 +2252,31 @@
         <v>8.6368500000000001E-2</v>
       </c>
       <c r="D17" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G17" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E17" s="7">
+      <c r="H17" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F17" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -1817,22 +2287,31 @@
         <v>2.8126700000000001E-2</v>
       </c>
       <c r="D18" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F18" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G18" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="H18" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F18" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -1843,27 +2322,36 @@
         <v>0</v>
       </c>
       <c r="D19" s="7">
+        <v>0.40307599999999999</v>
+      </c>
+      <c r="E19" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="F19" s="7">
+        <v>2.5474999999999999E-4</v>
+      </c>
+      <c r="G19" s="7">
         <v>0.15645200000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="H19" s="7">
         <v>0.29350399999999999</v>
       </c>
-      <c r="F19" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.15324599999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.15324599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:H21" si="0">AVERAGE(B5:B19)</f>
+        <f t="shared" ref="B21:K21" si="0">AVERAGE(B5:B19)</f>
         <v>1</v>
       </c>
       <c r="C21" s="9">
@@ -1872,54 +2360,78 @@
       </c>
       <c r="D21" s="9">
         <f t="shared" si="0"/>
+        <v>0.4030760000000001</v>
+      </c>
+      <c r="E21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5474999999999988E-4</v>
+      </c>
+      <c r="F21" s="9">
+        <f t="shared" si="0"/>
+        <v>2.5474999999999988E-4</v>
+      </c>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
         <v>0.15645199999999998</v>
       </c>
-      <c r="E21" s="9">
+      <c r="H21" s="9">
         <f t="shared" si="0"/>
         <v>0.29350399999999993</v>
       </c>
-      <c r="F21" s="9">
+      <c r="I21" s="9">
         <f t="shared" si="0"/>
         <v>0.15324599999999997</v>
       </c>
-      <c r="G21" s="9">
+      <c r="J21" s="9">
         <f t="shared" si="0"/>
         <v>0.15324599999999997</v>
       </c>
-      <c r="H21" s="9">
+      <c r="K21" s="9">
         <f t="shared" si="0"/>
         <v>0.15324599999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="10">
-        <f t="shared" ref="B22:H22" si="1">STDEV(B5:B19)</f>
+        <v>14</v>
+      </c>
+      <c r="B22" s="3">
+        <f t="shared" ref="B22:K22" si="1">STDEV(B5:B19)</f>
         <v>0</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="1"/>
         <v>3.5498610586399991E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1491900087240784E-16</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1222558678946078E-19</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.1222558678946078E-19</v>
+      </c>
+      <c r="G22" s="5">
         <f t="shared" si="1"/>
         <v>2.872975021810196E-17</v>
       </c>
-      <c r="E22" s="5">
+      <c r="H22" s="5">
         <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="F22" s="5">
+      <c r="I22" s="5">
         <f t="shared" si="1"/>
         <v>2.872975021810196E-17</v>
       </c>
-      <c r="G22" s="5">
+      <c r="J22" s="5">
         <f t="shared" si="1"/>
         <v>2.872975021810196E-17</v>
       </c>
-      <c r="H22" s="5">
+      <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>2.872975021810196E-17</v>
       </c>
@@ -1934,7 +2446,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:AE22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1949,139 +2461,187 @@
     <col min="7" max="7" width="6.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.5703125" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" customWidth="1"/>
+    <col min="10" max="11" width="7.5703125" customWidth="1"/>
     <col min="12" max="12" width="8.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" customWidth="1"/>
-    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="13" max="14" width="7.5703125" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="17" width="8.85546875" customWidth="1"/>
-    <col min="18" max="20" width="8.140625" customWidth="1"/>
+    <col min="16" max="17" width="7.5703125" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="7.42578125" customWidth="1"/>
     <col min="21" max="21" width="8.85546875" customWidth="1"/>
     <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" customWidth="1"/>
+    <col min="25" max="25" width="8.7109375" customWidth="1"/>
+    <col min="26" max="26" width="8.85546875" customWidth="1"/>
+    <col min="27" max="29" width="8.140625" customWidth="1"/>
+    <col min="30" max="30" width="8.85546875" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="18" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="18" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="18" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="19"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="18" t="s">
+      <c r="L3" s="18"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="18" t="s">
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="18" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="19"/>
+      <c r="U3" s="18"/>
       <c r="V3" s="19"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="18"/>
+      <c r="AE3" s="18"/>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="U4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD4" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE4" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2091,7 +2651,7 @@
       <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" s="7">
@@ -2100,56 +2660,83 @@
       <c r="F5" s="7">
         <v>0.25617600000000001</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>0.52928900000000001</v>
       </c>
       <c r="H5" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L5" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q5" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I5" s="7">
+      <c r="R5" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J5" s="14">
+      <c r="S5" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K5" s="7">
+      <c r="T5" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L5" s="7">
+      <c r="U5" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M5" s="14">
+      <c r="V5" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N5" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O5" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P5" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R5" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S5" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W5" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X5" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE5" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>2</v>
       </c>
@@ -2159,7 +2746,7 @@
       <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" s="7">
@@ -2168,56 +2755,83 @@
       <c r="F6" s="7">
         <v>0.42701499999999998</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>0.56345500000000004</v>
       </c>
       <c r="H6" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K6" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L6" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N6" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q6" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I6" s="7">
+      <c r="R6" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J6" s="14">
+      <c r="S6" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K6" s="7">
+      <c r="T6" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L6" s="7">
+      <c r="U6" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M6" s="14">
+      <c r="V6" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N6" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P6" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R6" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S6" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V6" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X6" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB6" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE6" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>3</v>
       </c>
@@ -2227,7 +2841,7 @@
       <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" s="7">
@@ -2236,56 +2850,83 @@
       <c r="F7" s="7">
         <v>0.40117199999999997</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>0.52529300000000001</v>
       </c>
       <c r="H7" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J7" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K7" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L7" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q7" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="R7" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J7" s="14">
+      <c r="S7" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K7" s="7">
+      <c r="T7" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L7" s="7">
+      <c r="U7" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M7" s="14">
+      <c r="V7" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N7" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P7" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R7" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S7" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V7" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X7" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y7" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB7" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE7" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>4</v>
       </c>
@@ -2295,7 +2936,7 @@
       <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" s="7">
@@ -2304,56 +2945,83 @@
       <c r="F8" s="7">
         <v>0.39091700000000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0.51208299999999995</v>
       </c>
       <c r="H8" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J8" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K8" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L8" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N8" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q8" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I8" s="7">
+      <c r="R8" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J8" s="14">
+      <c r="S8" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K8" s="7">
+      <c r="T8" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L8" s="7">
+      <c r="U8" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M8" s="14">
+      <c r="V8" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N8" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P8" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R8" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S8" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V8" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X8" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y8" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB8" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD8" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE8" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>5</v>
       </c>
@@ -2363,7 +3031,7 @@
       <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" s="7">
@@ -2372,56 +3040,83 @@
       <c r="F9" s="7">
         <v>0.286607</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0.50456000000000001</v>
       </c>
       <c r="H9" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J9" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K9" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N9" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q9" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I9" s="7">
+      <c r="R9" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J9" s="14">
+      <c r="S9" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K9" s="7">
+      <c r="T9" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L9" s="7">
+      <c r="U9" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M9" s="14">
+      <c r="V9" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N9" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O9" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P9" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R9" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S9" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T9" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U9" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V9" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X9" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y9" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB9" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD9" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE9" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -2431,7 +3126,7 @@
       <c r="C10" s="2">
         <v>1</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" s="7">
@@ -2440,56 +3135,83 @@
       <c r="F10" s="7">
         <v>0.256712</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0.52647500000000003</v>
       </c>
       <c r="H10" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J10" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N10" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q10" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I10" s="7">
+      <c r="R10" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J10" s="14">
+      <c r="S10" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K10" s="7">
+      <c r="T10" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L10" s="7">
+      <c r="U10" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M10" s="14">
+      <c r="V10" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N10" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P10" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R10" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S10" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V10" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X10" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y10" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB10" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE10" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>7</v>
       </c>
@@ -2499,7 +3221,7 @@
       <c r="C11" s="2">
         <v>1</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="E11" s="7">
@@ -2508,56 +3230,83 @@
       <c r="F11" s="7">
         <v>0.38832499999999998</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>0.52749900000000005</v>
       </c>
       <c r="H11" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J11" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L11" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q11" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I11" s="7">
+      <c r="R11" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J11" s="14">
+      <c r="S11" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K11" s="7">
+      <c r="T11" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L11" s="7">
+      <c r="U11" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M11" s="14">
+      <c r="V11" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N11" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P11" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R11" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S11" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T11" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U11" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V11" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X11" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y11" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB11" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE11" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>8</v>
       </c>
@@ -2567,7 +3316,7 @@
       <c r="C12" s="2">
         <v>1</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
       <c r="E12" s="8">
@@ -2576,56 +3325,83 @@
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
       <c r="H12" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J12" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q12" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I12" s="7">
+      <c r="R12" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J12" s="14">
+      <c r="S12" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K12" s="7">
+      <c r="T12" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L12" s="7">
+      <c r="U12" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M12" s="14">
+      <c r="V12" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N12" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O12" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P12" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q12" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R12" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S12" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T12" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U12" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V12" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X12" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>9</v>
       </c>
@@ -2635,7 +3411,7 @@
       <c r="C13" s="2">
         <v>1</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" s="7">
@@ -2644,56 +3420,83 @@
       <c r="F13" s="7">
         <v>0.43909500000000001</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0.58188799999999996</v>
       </c>
       <c r="H13" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J13" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q13" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I13" s="7">
+      <c r="R13" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J13" s="14">
+      <c r="S13" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K13" s="7">
+      <c r="T13" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L13" s="7">
+      <c r="U13" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M13" s="14">
+      <c r="V13" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N13" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O13" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P13" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q13" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R13" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S13" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T13" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U13" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V13" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X13" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y13" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB13" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE13" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>10</v>
       </c>
@@ -2703,7 +3506,7 @@
       <c r="C14" s="2">
         <v>1</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" s="7">
@@ -2712,56 +3515,83 @@
       <c r="F14" s="7">
         <v>0.42416999999999999</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0.54306399999999999</v>
       </c>
       <c r="H14" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L14" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N14" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q14" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I14" s="7">
+      <c r="R14" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J14" s="14">
+      <c r="S14" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K14" s="7">
+      <c r="T14" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L14" s="7">
+      <c r="U14" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M14" s="14">
+      <c r="V14" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N14" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P14" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R14" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S14" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T14" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U14" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V14" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X14" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y14" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>11</v>
       </c>
@@ -2771,7 +3601,7 @@
       <c r="C15" s="2">
         <v>1</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>1</v>
       </c>
       <c r="E15" s="8">
@@ -2780,56 +3610,83 @@
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
       <c r="H15" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q15" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I15" s="7">
+      <c r="R15" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J15" s="14">
+      <c r="S15" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K15" s="7">
+      <c r="T15" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L15" s="7">
+      <c r="U15" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M15" s="14">
+      <c r="V15" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N15" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P15" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R15" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S15" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T15" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U15" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V15" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y15" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB15" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE15" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>12</v>
       </c>
@@ -2839,7 +3696,7 @@
       <c r="C16" s="2">
         <v>1</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
       <c r="E16" s="7">
@@ -2848,56 +3705,83 @@
       <c r="F16" s="7">
         <v>0.40307799999999999</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0.53056599999999998</v>
       </c>
       <c r="H16" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q16" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I16" s="7">
+      <c r="R16" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J16" s="14">
+      <c r="S16" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K16" s="7">
+      <c r="T16" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L16" s="7">
+      <c r="U16" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M16" s="14">
+      <c r="V16" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N16" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O16" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P16" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S16" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T16" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U16" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V16" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>13</v>
       </c>
@@ -2907,7 +3791,7 @@
       <c r="C17" s="2">
         <v>1</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
       <c r="E17" s="7">
@@ -2916,56 +3800,83 @@
       <c r="F17" s="7">
         <v>0.41544300000000001</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0.53540699999999997</v>
       </c>
       <c r="H17" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K17" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N17" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O17" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q17" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I17" s="7">
+      <c r="R17" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J17" s="14">
+      <c r="S17" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K17" s="7">
+      <c r="T17" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L17" s="7">
+      <c r="U17" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M17" s="14">
+      <c r="V17" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N17" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P17" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R17" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S17" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V17" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X17" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB17" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE17" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>14</v>
       </c>
@@ -2975,7 +3886,7 @@
       <c r="C18" s="2">
         <v>1</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" s="7">
@@ -2984,56 +3895,83 @@
       <c r="F18" s="7">
         <v>0.36660500000000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0.46112199999999998</v>
       </c>
       <c r="H18" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K18" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N18" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O18" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q18" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I18" s="7">
+      <c r="R18" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J18" s="14">
+      <c r="S18" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K18" s="7">
+      <c r="T18" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L18" s="7">
+      <c r="U18" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M18" s="14">
+      <c r="V18" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N18" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P18" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R18" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S18" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V18" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X18" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y18" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB18" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC18" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD18" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE18" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>15</v>
       </c>
@@ -3043,7 +3981,7 @@
       <c r="C19" s="2">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>1</v>
       </c>
       <c r="E19" s="8">
@@ -3052,68 +3990,95 @@
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="15">
+      <c r="G19" s="14">
         <v>0</v>
       </c>
       <c r="H19" s="7">
+        <v>0.64621899999999999</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0.60207100000000002</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.69735199999999997</v>
+      </c>
+      <c r="K19" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N19" s="7">
+        <v>0.47666399999999998</v>
+      </c>
+      <c r="O19" s="7">
+        <v>0.43010700000000002</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q19" s="7">
         <v>0.38561200000000001</v>
       </c>
-      <c r="I19" s="7">
+      <c r="R19" s="7">
         <v>0.32519199999999998</v>
       </c>
-      <c r="J19" s="14">
+      <c r="S19" s="13">
         <v>0.473607</v>
       </c>
-      <c r="K19" s="7">
+      <c r="T19" s="7">
         <v>0.45762199999999997</v>
       </c>
-      <c r="L19" s="7">
+      <c r="U19" s="7">
         <v>0.58024699999999996</v>
       </c>
-      <c r="M19" s="14">
+      <c r="V19" s="13">
         <v>0.37778400000000001</v>
       </c>
-      <c r="N19" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="P19" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="R19" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0.473852</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0.44035999999999997</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0.41128999999999999</v>
-      </c>
-      <c r="V19" s="14">
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="X19" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="Y19" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AB19" s="13">
+        <v>0.473852</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>0.44035999999999997</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>0.41128999999999999</v>
+      </c>
+      <c r="AE19" s="13">
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="5">
-        <f t="shared" ref="B21:V21" si="0">AVERAGE(B5:B19)</f>
+        <f t="shared" ref="B21:AE21" si="0">AVERAGE(B5:B19)</f>
         <v>1</v>
       </c>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="15">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -3125,84 +4090,120 @@
         <f t="shared" si="0"/>
         <v>0.29702099999999998</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="16">
         <f t="shared" si="0"/>
         <v>0.42271340000000007</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
+        <v>0.6462190000000001</v>
+      </c>
+      <c r="I21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.60207100000000024</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.69735200000000019</v>
+      </c>
+      <c r="K21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47666399999999975</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.43010699999999991</v>
+      </c>
+      <c r="M21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="N21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47666399999999975</v>
+      </c>
+      <c r="O21" s="9">
+        <f t="shared" si="0"/>
+        <v>0.43010699999999991</v>
+      </c>
+      <c r="P21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.53452200000000005</v>
+      </c>
+      <c r="Q21" s="9">
+        <f t="shared" si="0"/>
         <v>0.38561200000000001</v>
       </c>
-      <c r="I21" s="9">
+      <c r="R21" s="9">
         <f t="shared" si="0"/>
         <v>0.32519200000000004</v>
       </c>
-      <c r="J21" s="17">
+      <c r="S21" s="16">
         <f t="shared" si="0"/>
         <v>0.47360700000000011</v>
       </c>
-      <c r="K21" s="9">
+      <c r="T21" s="9">
         <f t="shared" si="0"/>
         <v>0.45762199999999981</v>
       </c>
-      <c r="L21" s="9">
+      <c r="U21" s="9">
         <f t="shared" si="0"/>
         <v>0.58024699999999996</v>
       </c>
-      <c r="M21" s="17">
+      <c r="V21" s="16">
         <f t="shared" si="0"/>
         <v>0.37778400000000006</v>
       </c>
-      <c r="N21" s="9">
+      <c r="W21" s="9">
         <f t="shared" si="0"/>
         <v>0.44036000000000003</v>
       </c>
-      <c r="O21" s="9">
+      <c r="X21" s="9">
         <f t="shared" si="0"/>
         <v>0.4112900000000001</v>
       </c>
-      <c r="P21" s="17">
-        <f t="shared" si="0"/>
-        <v>0.473852</v>
-      </c>
-      <c r="Q21" s="9">
+      <c r="Y21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.473852</v>
+      </c>
+      <c r="Z21" s="9">
         <f t="shared" si="0"/>
         <v>0.44036000000000003</v>
       </c>
-      <c r="R21" s="9">
+      <c r="AA21" s="9">
         <f t="shared" si="0"/>
         <v>0.4112900000000001</v>
       </c>
-      <c r="S21" s="17">
-        <f t="shared" si="0"/>
-        <v>0.473852</v>
-      </c>
-      <c r="T21" s="9">
+      <c r="AB21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.473852</v>
+      </c>
+      <c r="AC21" s="9">
         <f t="shared" si="0"/>
         <v>0.44036000000000003</v>
       </c>
-      <c r="U21" s="9">
+      <c r="AD21" s="9">
         <f t="shared" si="0"/>
         <v>0.4112900000000001</v>
       </c>
-      <c r="V21" s="17">
-        <f t="shared" si="0"/>
-        <v>0.473852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="AE21" s="16">
+        <f t="shared" si="0"/>
+        <v>0.473852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B22" s="5">
-        <f t="shared" ref="B22:V22" si="1">STDEV(B5:B19)</f>
+        <f t="shared" ref="B22:AE22" si="1">STDEV(B5:B19)</f>
         <v>0</v>
       </c>
       <c r="C22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3214,80 +4215,119 @@
         <f t="shared" si="1"/>
         <v>0.1646273788980957</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G22" s="16">
         <f t="shared" si="1"/>
         <v>0.2203583673644883</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1491900087240784E-16</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="1"/>
+        <v>2.2983800174481568E-16</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>2.2983800174481568E-16</v>
+      </c>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2983800174481568E-16</v>
+      </c>
+      <c r="L22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1491900087240784E-16</v>
+      </c>
+      <c r="M22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2983800174481568E-16</v>
+      </c>
+      <c r="O22" s="5">
+        <f t="shared" si="1"/>
+        <v>1.1491900087240784E-16</v>
+      </c>
+      <c r="P22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="5">
+        <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="J22" s="16">
+      <c r="S22" s="15">
         <f t="shared" si="1"/>
         <v>1.1491900087240784E-16</v>
       </c>
-      <c r="K22" s="5">
+      <c r="T22" s="5">
         <f t="shared" si="1"/>
         <v>1.7237850130861175E-16</v>
       </c>
-      <c r="L22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="16">
+      <c r="U22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
         <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="N22" s="5">
+      <c r="W22" s="5">
         <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="O22" s="5">
+      <c r="X22" s="5">
         <f t="shared" si="1"/>
         <v>1.1491900087240784E-16</v>
       </c>
-      <c r="P22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="5">
+      <c r="Y22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="5">
         <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="R22" s="5">
+      <c r="AA22" s="5">
         <f t="shared" si="1"/>
         <v>1.1491900087240784E-16</v>
       </c>
-      <c r="S22" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="5">
+      <c r="AB22" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="5">
         <f t="shared" si="1"/>
         <v>5.7459500436203921E-17</v>
       </c>
-      <c r="U22" s="5">
+      <c r="AD22" s="5">
         <f t="shared" si="1"/>
         <v>1.1491900087240784E-16</v>
       </c>
-      <c r="V22" s="16">
+      <c r="AE22" s="15">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
+  <mergeCells count="10">
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
